--- a/Code/Results/Cases/Case_8_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.06165145891674</v>
+        <v>12.86887925235092</v>
       </c>
       <c r="C2">
-        <v>9.132996301532526</v>
+        <v>9.586034365331876</v>
       </c>
       <c r="D2">
-        <v>4.964720987168208</v>
+        <v>4.95627928745269</v>
       </c>
       <c r="E2">
-        <v>28.49871527260339</v>
+        <v>28.59639197266963</v>
       </c>
       <c r="F2">
-        <v>19.16420200293667</v>
+        <v>18.48036362907987</v>
       </c>
       <c r="G2">
-        <v>2.09217821920047</v>
+        <v>2.813746055008511</v>
       </c>
       <c r="H2">
-        <v>2.674788932877073</v>
+        <v>2.745391417590882</v>
       </c>
       <c r="I2">
-        <v>2.639712511835947</v>
+        <v>2.779110958580317</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.09633454550099</v>
+        <v>13.45758595063337</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.84173704152346</v>
       </c>
       <c r="M2">
-        <v>12.16377426518771</v>
+        <v>8.107706960410214</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.24022729930899</v>
       </c>
       <c r="P2">
-        <v>12.2227200576364</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.54654014660868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.05256132425575</v>
+      </c>
+      <c r="S2">
+        <v>14.93377248071628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.21977432089253</v>
+        <v>12.08553883355976</v>
       </c>
       <c r="C3">
-        <v>8.622572681297468</v>
+        <v>9.003673764973298</v>
       </c>
       <c r="D3">
-        <v>4.794487732843812</v>
+        <v>4.7585691644626</v>
       </c>
       <c r="E3">
-        <v>26.64698792452872</v>
+        <v>26.76305031383984</v>
       </c>
       <c r="F3">
-        <v>18.71513114167487</v>
+        <v>18.04494404978509</v>
       </c>
       <c r="G3">
-        <v>2.09573804198338</v>
+        <v>3.284251417335625</v>
       </c>
       <c r="H3">
-        <v>2.448449295474143</v>
+        <v>2.531147686693284</v>
       </c>
       <c r="I3">
-        <v>2.501842523494345</v>
+        <v>2.665452263215707</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.11120902501711</v>
+        <v>13.48270782399726</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.96826087676795</v>
       </c>
       <c r="M3">
-        <v>11.45808945738468</v>
+        <v>8.025580292798013</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.5523494978764</v>
       </c>
       <c r="P3">
-        <v>12.36118326267033</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.38963476980544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.16954940784166</v>
+      </c>
+      <c r="S3">
+        <v>14.7787143963743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.66984553603297</v>
+        <v>11.57401818514758</v>
       </c>
       <c r="C4">
-        <v>8.296831750565522</v>
+        <v>8.631576716315518</v>
       </c>
       <c r="D4">
-        <v>4.686150805146196</v>
+        <v>4.632481400594149</v>
       </c>
       <c r="E4">
-        <v>25.44461644577633</v>
+        <v>25.57283728345767</v>
       </c>
       <c r="F4">
-        <v>18.44167988002568</v>
+        <v>17.77672691922591</v>
       </c>
       <c r="G4">
-        <v>2.097995841938464</v>
+        <v>3.582833418724808</v>
       </c>
       <c r="H4">
-        <v>2.304464605478592</v>
+        <v>2.394772291807886</v>
       </c>
       <c r="I4">
-        <v>2.531130261247231</v>
+        <v>2.593844343524619</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.12377630913502</v>
+        <v>13.49965200183538</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.04710972253421</v>
       </c>
       <c r="M4">
-        <v>11.00139880674008</v>
+        <v>7.994046956776849</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.10762065780975</v>
       </c>
       <c r="P4">
-        <v>12.44768233522405</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.29770390999962</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.24285796584599</v>
+      </c>
+      <c r="S4">
+        <v>14.68537334881234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.43227681374669</v>
+        <v>11.35283300704149</v>
       </c>
       <c r="C5">
-        <v>8.169152758441049</v>
+        <v>8.484687724098821</v>
       </c>
       <c r="D5">
-        <v>4.642239396990465</v>
+        <v>4.581170454995958</v>
       </c>
       <c r="E5">
-        <v>24.93797424565717</v>
+        <v>25.07141368933711</v>
       </c>
       <c r="F5">
-        <v>18.32415080008339</v>
+        <v>17.66043214785935</v>
       </c>
       <c r="G5">
-        <v>2.098940204243013</v>
+        <v>3.707782727249884</v>
       </c>
       <c r="H5">
-        <v>2.244373641492404</v>
+        <v>2.337846676742075</v>
       </c>
       <c r="I5">
-        <v>2.572508750830254</v>
+        <v>2.565159794674648</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.12474528483353</v>
+        <v>13.50200239069519</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.07508014800817</v>
       </c>
       <c r="M5">
-        <v>10.80924522187093</v>
+        <v>7.983094916472947</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.9206415849827</v>
       </c>
       <c r="P5">
-        <v>12.48299946084198</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.25631507467647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.27286842626336</v>
+      </c>
+      <c r="S5">
+        <v>14.64270852126465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.38602585405289</v>
+        <v>11.30945275194369</v>
       </c>
       <c r="C6">
-        <v>8.157704457792436</v>
+        <v>8.470261263571217</v>
       </c>
       <c r="D6">
-        <v>4.636322368432213</v>
+        <v>4.574070071830514</v>
       </c>
       <c r="E6">
-        <v>24.85261589177486</v>
+        <v>24.98695837693136</v>
       </c>
       <c r="F6">
-        <v>18.29638038804916</v>
+        <v>17.63269968712609</v>
       </c>
       <c r="G6">
-        <v>2.099105301460672</v>
+        <v>3.72965966683351</v>
       </c>
       <c r="H6">
-        <v>2.234150350848258</v>
+        <v>2.328171874510694</v>
       </c>
       <c r="I6">
-        <v>2.583553947923262</v>
+        <v>2.561801711755387</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.11886096465139</v>
+        <v>13.49640610150059</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.0743050896551</v>
       </c>
       <c r="M6">
-        <v>10.77671531702127</v>
+        <v>7.97799596292447</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.88901468876835</v>
       </c>
       <c r="P6">
-        <v>12.48850765619709</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.24336175207619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.27758759031975</v>
+      </c>
+      <c r="S6">
+        <v>14.62942135825022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.64986816727728</v>
+        <v>11.54499735199926</v>
       </c>
       <c r="C7">
-        <v>8.321729324225135</v>
+        <v>8.634274451012764</v>
       </c>
       <c r="D7">
-        <v>4.689437550505231</v>
+        <v>4.643880549072703</v>
       </c>
       <c r="E7">
-        <v>25.43722213513146</v>
+        <v>25.56433259756108</v>
       </c>
       <c r="F7">
-        <v>18.41760451016136</v>
+        <v>17.70779833838559</v>
       </c>
       <c r="G7">
-        <v>2.098027731757161</v>
+        <v>3.64823003214605</v>
       </c>
       <c r="H7">
-        <v>2.30320953790295</v>
+        <v>2.392756321794808</v>
       </c>
       <c r="I7">
-        <v>2.542582423415948</v>
+        <v>2.595655971126493</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.10715321188589</v>
+        <v>13.4642714366285</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.01625081888202</v>
       </c>
       <c r="M7">
-        <v>10.99809996483941</v>
+        <v>7.971681045386957</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.09092115985818</v>
       </c>
       <c r="P7">
-        <v>12.44717218400079</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.2804202967677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.24159897548535</v>
+      </c>
+      <c r="S7">
+        <v>14.63489202699572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.75764875351139</v>
+        <v>12.55543142020251</v>
       </c>
       <c r="C8">
-        <v>8.992550891220651</v>
+        <v>9.351698340046207</v>
       </c>
       <c r="D8">
-        <v>4.911820038387159</v>
+        <v>4.920325906831208</v>
       </c>
       <c r="E8">
-        <v>27.87302095772747</v>
+        <v>27.97318211868356</v>
       </c>
       <c r="F8">
-        <v>18.98007918770471</v>
+        <v>18.15815011310083</v>
       </c>
       <c r="G8">
-        <v>2.093414841691401</v>
+        <v>3.357924312379285</v>
       </c>
       <c r="H8">
-        <v>2.597212732647029</v>
+        <v>2.669339244949952</v>
       </c>
       <c r="I8">
-        <v>2.595646336593253</v>
+        <v>2.740255525388926</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.07881493649647</v>
+        <v>13.3824594138857</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.8169973586442</v>
       </c>
       <c r="M8">
-        <v>11.92443712239465</v>
+        <v>8.015507977398178</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.96474959076029</v>
       </c>
       <c r="P8">
-        <v>12.26908706379183</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.46973273978826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.09012429740637</v>
+      </c>
+      <c r="S8">
+        <v>14.75078757888397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.6957934078753</v>
+        <v>14.35604041495811</v>
       </c>
       <c r="C9">
-        <v>10.1653088203186</v>
+        <v>10.67931309164348</v>
       </c>
       <c r="D9">
-        <v>5.309910531647414</v>
+        <v>5.386997372732188</v>
       </c>
       <c r="E9">
-        <v>32.13361566932696</v>
+        <v>32.19104046645877</v>
       </c>
       <c r="F9">
-        <v>20.13490397561587</v>
+        <v>19.23331035869048</v>
       </c>
       <c r="G9">
-        <v>2.084895039460845</v>
+        <v>2.470805224932799</v>
       </c>
       <c r="H9">
-        <v>3.135609866998775</v>
+        <v>3.177885303605548</v>
       </c>
       <c r="I9">
-        <v>2.924152516023495</v>
+        <v>3.009619833957163</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.08148196761677</v>
+        <v>13.33268545290581</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.51926669164552</v>
       </c>
       <c r="M9">
-        <v>13.55476193536957</v>
+        <v>8.312873938922618</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.54911607050214</v>
       </c>
       <c r="P9">
-        <v>11.93251405751113</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.90566435624079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.80870329979841</v>
+      </c>
+      <c r="S9">
+        <v>15.14302443668712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.92931977024096</v>
+        <v>15.46086296662172</v>
       </c>
       <c r="C10">
-        <v>10.93004627967739</v>
+        <v>11.43411252560773</v>
       </c>
       <c r="D10">
-        <v>5.605831036177976</v>
+        <v>5.769916068929684</v>
       </c>
       <c r="E10">
-        <v>34.07380016782889</v>
+        <v>34.09757263867933</v>
       </c>
       <c r="F10">
-        <v>20.86619806489496</v>
+        <v>19.67123488022357</v>
       </c>
       <c r="G10">
-        <v>2.079142702263679</v>
+        <v>3.767779660363567</v>
       </c>
       <c r="H10">
-        <v>3.474016500705686</v>
+        <v>3.491584301921284</v>
       </c>
       <c r="I10">
-        <v>3.150197527623499</v>
+        <v>3.190225799211525</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.04247023632729</v>
+        <v>13.14834752061583</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.20014610139934</v>
       </c>
       <c r="M10">
-        <v>14.60408071919798</v>
+        <v>8.474699453087659</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.5065106841355</v>
       </c>
       <c r="P10">
-        <v>11.69313330049205</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.15683097742779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.61542196594991</v>
+      </c>
+      <c r="S10">
+        <v>15.17831607137546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.21528814110145</v>
+        <v>15.65923051528092</v>
       </c>
       <c r="C11">
-        <v>10.91085221324488</v>
+        <v>11.17394661819982</v>
       </c>
       <c r="D11">
-        <v>5.93325042548064</v>
+        <v>6.206610147402034</v>
       </c>
       <c r="E11">
-        <v>27.41951374183725</v>
+        <v>27.42758353424882</v>
       </c>
       <c r="F11">
-        <v>20.22413815030619</v>
+        <v>18.56553465359348</v>
       </c>
       <c r="G11">
-        <v>2.078042306854486</v>
+        <v>7.788429572090816</v>
       </c>
       <c r="H11">
-        <v>3.914969022827301</v>
+        <v>3.91989460519666</v>
       </c>
       <c r="I11">
-        <v>3.204893258015528</v>
+        <v>3.227253536486407</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.55203597561868</v>
+        <v>12.4970468486295</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.6914082601114</v>
       </c>
       <c r="M11">
-        <v>14.78067753989182</v>
+        <v>8.040363681433728</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.54410103305165</v>
       </c>
       <c r="P11">
-        <v>11.61261408762694</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.52904104615928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.59680198919402</v>
+      </c>
+      <c r="S11">
+        <v>14.21252428000406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.22781246060794</v>
+        <v>15.64976514757878</v>
       </c>
       <c r="C12">
-        <v>10.71173315541843</v>
+        <v>10.83810979691255</v>
       </c>
       <c r="D12">
-        <v>6.146792628001603</v>
+        <v>6.470379521827763</v>
       </c>
       <c r="E12">
-        <v>21.39232148562658</v>
+        <v>21.39694200041792</v>
       </c>
       <c r="F12">
-        <v>19.54327757162285</v>
+        <v>17.69975357970514</v>
       </c>
       <c r="G12">
-        <v>2.07811435210958</v>
+        <v>9.70697906283193</v>
       </c>
       <c r="H12">
-        <v>4.841749371646529</v>
+        <v>4.84380026437091</v>
       </c>
       <c r="I12">
-        <v>3.205384349356884</v>
+        <v>3.223557656254681</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.1696289412251</v>
+        <v>12.08584168979696</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.40719157097087</v>
       </c>
       <c r="M12">
-        <v>14.71978473771518</v>
+        <v>7.711209686246607</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.42254259104992</v>
       </c>
       <c r="P12">
-        <v>11.60631239678416</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.96036210301236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.6371672496667</v>
+      </c>
+      <c r="S12">
+        <v>13.52549133008025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.012378963734</v>
+        <v>15.47933253042778</v>
       </c>
       <c r="C13">
-        <v>10.39002492078014</v>
+        <v>10.48907191451518</v>
       </c>
       <c r="D13">
-        <v>6.294021761522117</v>
+        <v>6.603180681459847</v>
       </c>
       <c r="E13">
-        <v>15.32215506555481</v>
+        <v>15.33539127104145</v>
       </c>
       <c r="F13">
-        <v>18.74737284953377</v>
+        <v>17.01490495179048</v>
       </c>
       <c r="G13">
-        <v>2.079114469919178</v>
+        <v>9.300202976926045</v>
       </c>
       <c r="H13">
-        <v>5.964251259118915</v>
+        <v>5.96823091477933</v>
       </c>
       <c r="I13">
-        <v>3.168319680578227</v>
+        <v>3.19491269185943</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.82222383782253</v>
+        <v>11.83709832908341</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.25908862895446</v>
       </c>
       <c r="M13">
-        <v>14.47078538040811</v>
+        <v>7.460458180615555</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.19392977460891</v>
       </c>
       <c r="P13">
-        <v>11.65225104160204</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.3742468938341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.70114212569083</v>
+      </c>
+      <c r="S13">
+        <v>13.04441714960761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75209622613716</v>
+        <v>15.28064828318161</v>
       </c>
       <c r="C14">
-        <v>10.11343150951918</v>
+        <v>10.23929900054416</v>
       </c>
       <c r="D14">
-        <v>6.369389182505977</v>
+        <v>6.638711951061674</v>
       </c>
       <c r="E14">
-        <v>11.04224039827397</v>
+        <v>11.07097835441381</v>
       </c>
       <c r="F14">
-        <v>18.12743657520305</v>
+        <v>16.59974364879152</v>
       </c>
       <c r="G14">
-        <v>2.080219461107606</v>
+        <v>7.995739279037285</v>
       </c>
       <c r="H14">
-        <v>6.820468082441085</v>
+        <v>6.826586308803412</v>
       </c>
       <c r="I14">
-        <v>3.12700694429161</v>
+        <v>3.16515449568943</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.5930981952473</v>
+        <v>11.72482691419438</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.20465021036951</v>
       </c>
       <c r="M14">
-        <v>14.20889050847875</v>
+        <v>7.315010109955952</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.98182371609942</v>
       </c>
       <c r="P14">
-        <v>11.70791973843035</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.95227475668737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.75186949008662</v>
+      </c>
+      <c r="S14">
+        <v>12.78631061350399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.63342585314113</v>
+        <v>15.19026362456175</v>
       </c>
       <c r="C15">
-        <v>10.02601546409811</v>
+        <v>10.17797431576556</v>
       </c>
       <c r="D15">
-        <v>6.374871494012484</v>
+        <v>6.6216425529144</v>
       </c>
       <c r="E15">
-        <v>9.990979484618268</v>
+        <v>10.02822014175119</v>
       </c>
       <c r="F15">
-        <v>17.94568563251597</v>
+        <v>16.5215936243932</v>
       </c>
       <c r="G15">
-        <v>2.080715976393916</v>
+        <v>7.244774669832828</v>
       </c>
       <c r="H15">
-        <v>7.017520186362009</v>
+        <v>7.024681484079904</v>
       </c>
       <c r="I15">
-        <v>3.109607727038575</v>
+        <v>3.15368368841442</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.54032377592333</v>
+        <v>11.72042237309381</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.21006817968608</v>
       </c>
       <c r="M15">
-        <v>14.10317736190789</v>
+        <v>7.289023359043309</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.90370490906246</v>
       </c>
       <c r="P15">
-        <v>11.73130745103105</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.84202919115905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.76667336198677</v>
+      </c>
+      <c r="S15">
+        <v>12.75338673630149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.14997280305444</v>
+        <v>14.81978813014357</v>
       </c>
       <c r="C16">
-        <v>9.768849253858809</v>
+        <v>10.08169151863403</v>
       </c>
       <c r="D16">
-        <v>6.230022520643137</v>
+        <v>6.369671253931821</v>
       </c>
       <c r="E16">
-        <v>9.901178073671725</v>
+        <v>9.969943659178075</v>
       </c>
       <c r="F16">
-        <v>17.75228363338302</v>
+        <v>16.77093237862729</v>
       </c>
       <c r="G16">
-        <v>2.082949028575626</v>
+        <v>3.774550404974054</v>
       </c>
       <c r="H16">
-        <v>6.747401146817436</v>
+        <v>6.76044782556118</v>
       </c>
       <c r="I16">
-        <v>3.023919951158206</v>
+        <v>3.093573337216387</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.6192962104964</v>
+        <v>11.96341017912949</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.41082443330053</v>
       </c>
       <c r="M16">
-        <v>13.70698091913465</v>
+        <v>7.398986643116714</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.63758906667108</v>
       </c>
       <c r="P16">
-        <v>11.81435986859092</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.83598540148042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.79044729803031</v>
+      </c>
+      <c r="S16">
+        <v>13.05666794282411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91527342272444</v>
+        <v>14.62743740134595</v>
       </c>
       <c r="C17">
-        <v>9.721839254908152</v>
+        <v>10.12018527503976</v>
       </c>
       <c r="D17">
-        <v>6.075786336558232</v>
+        <v>6.168604697872508</v>
       </c>
       <c r="E17">
-        <v>12.18834609973382</v>
+        <v>12.2626633691316</v>
       </c>
       <c r="F17">
-        <v>17.94229064212336</v>
+        <v>17.135025126409</v>
       </c>
       <c r="G17">
-        <v>2.08409549871971</v>
+        <v>2.504769532010644</v>
       </c>
       <c r="H17">
-        <v>6.034871186899049</v>
+        <v>6.052415520254126</v>
       </c>
       <c r="I17">
-        <v>2.979710682511655</v>
+        <v>3.062012865756979</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.80029251212699</v>
+        <v>12.19522449482467</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.59552699113521</v>
       </c>
       <c r="M17">
-        <v>13.54207254990742</v>
+        <v>7.539549703884778</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.53004490807027</v>
       </c>
       <c r="P17">
-        <v>11.85004649385524</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.05739618959109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.79542161657378</v>
+      </c>
+      <c r="S17">
+        <v>13.39447898566181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.88864101734574</v>
+        <v>14.60145217449315</v>
       </c>
       <c r="C18">
-        <v>9.840556871465603</v>
+        <v>10.3047723535629</v>
       </c>
       <c r="D18">
-        <v>5.894904880180698</v>
+        <v>5.970120525949644</v>
       </c>
       <c r="E18">
-        <v>16.95413587624414</v>
+        <v>17.02061888714866</v>
       </c>
       <c r="F18">
-        <v>18.4944769764712</v>
+        <v>17.73623503941446</v>
       </c>
       <c r="G18">
-        <v>2.084328448290825</v>
+        <v>2.087777901604305</v>
       </c>
       <c r="H18">
-        <v>4.932266542120623</v>
+        <v>4.955349534492285</v>
       </c>
       <c r="I18">
-        <v>2.9654548017857</v>
+        <v>3.050616982680804</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.10251782788185</v>
+        <v>12.49056061531873</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.81731274646661</v>
       </c>
       <c r="M18">
-        <v>13.56618579158523</v>
+        <v>7.760472804883165</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.57697951120156</v>
       </c>
       <c r="P18">
-        <v>11.8526939114796</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.50930102220457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.77905669901884</v>
+      </c>
+      <c r="S18">
+        <v>13.87411551248153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.00911454898158</v>
+        <v>14.69588023931212</v>
       </c>
       <c r="C19">
-        <v>10.12986795731141</v>
+        <v>10.6552933733775</v>
       </c>
       <c r="D19">
-        <v>5.716340634353894</v>
+        <v>5.791165984189779</v>
       </c>
       <c r="E19">
-        <v>23.3526858988782</v>
+        <v>23.40946879176534</v>
       </c>
       <c r="F19">
-        <v>19.25169053229203</v>
+        <v>18.47426632268702</v>
       </c>
       <c r="G19">
-        <v>2.083709061606308</v>
+        <v>1.916666389728848</v>
       </c>
       <c r="H19">
-        <v>3.831060843010025</v>
+        <v>3.861175086379094</v>
       </c>
       <c r="I19">
-        <v>2.988466329998035</v>
+        <v>3.070546451007638</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.45798449963437</v>
+        <v>12.80747742073449</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.046637378222</v>
       </c>
       <c r="M19">
-        <v>13.74302435594989</v>
+        <v>8.021595713394913</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.75655760461782</v>
       </c>
       <c r="P19">
-        <v>11.83588444133577</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.08589226070587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.75021195919067</v>
+      </c>
+      <c r="S19">
+        <v>14.43069930109621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.57393101388775</v>
+        <v>15.1658964988451</v>
       </c>
       <c r="C20">
-        <v>10.79760839108916</v>
+        <v>11.3707307263278</v>
       </c>
       <c r="D20">
-        <v>5.541521347353438</v>
+        <v>5.657451210235628</v>
       </c>
       <c r="E20">
-        <v>33.53516968825087</v>
+        <v>33.5712822697393</v>
       </c>
       <c r="F20">
-        <v>20.60676091289428</v>
+        <v>19.63063859191305</v>
       </c>
       <c r="G20">
-        <v>2.080689555867584</v>
+        <v>2.31249521139718</v>
       </c>
       <c r="H20">
-        <v>3.382836477136452</v>
+        <v>3.409505227107535</v>
       </c>
       <c r="I20">
-        <v>3.100374920537907</v>
+        <v>3.15907332919768</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.99835449573293</v>
+        <v>13.21063119857506</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.29176538244487</v>
       </c>
       <c r="M20">
-        <v>14.33285074892552</v>
+        <v>8.441340478762486</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.29804904513048</v>
       </c>
       <c r="P20">
-        <v>11.75432953195565</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.03680625061499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.6645002067481</v>
+      </c>
+      <c r="S20">
+        <v>15.22574833306937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.52295099623631</v>
+        <v>15.87673586297128</v>
       </c>
       <c r="C21">
-        <v>11.41835398753889</v>
+        <v>11.66358961488992</v>
       </c>
       <c r="D21">
-        <v>5.725040258927421</v>
+        <v>6.043156085595196</v>
       </c>
       <c r="E21">
-        <v>36.29671573163165</v>
+        <v>36.29021205981375</v>
       </c>
       <c r="F21">
-        <v>21.35108334034339</v>
+        <v>19.40782923986501</v>
       </c>
       <c r="G21">
-        <v>2.076080026471725</v>
+        <v>9.439003940425625</v>
       </c>
       <c r="H21">
-        <v>3.690633736874729</v>
+        <v>3.685798381782937</v>
       </c>
       <c r="I21">
-        <v>3.278392622287112</v>
+        <v>3.283099663668255</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.0671789127631</v>
+        <v>12.81820304294059</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.89505154525201</v>
       </c>
       <c r="M21">
-        <v>15.15238405254851</v>
+        <v>8.352455835338406</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.85001572991657</v>
       </c>
       <c r="P21">
-        <v>11.57016710944106</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.37696605978809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.52945120396471</v>
+      </c>
+      <c r="S21">
+        <v>14.81901358752136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.11678797035461</v>
+        <v>16.31487529369031</v>
       </c>
       <c r="C22">
-        <v>11.76382811184991</v>
+        <v>11.78081453935657</v>
       </c>
       <c r="D22">
-        <v>5.848062687881928</v>
+        <v>6.306344561947476</v>
       </c>
       <c r="E22">
-        <v>37.59188397869602</v>
+        <v>37.5593675278446</v>
       </c>
       <c r="F22">
-        <v>21.80485438169431</v>
+        <v>19.18746094142523</v>
       </c>
       <c r="G22">
-        <v>2.073191504740158</v>
+        <v>14.51681784266031</v>
       </c>
       <c r="H22">
-        <v>3.870231986718953</v>
+        <v>3.846030052869868</v>
       </c>
       <c r="I22">
-        <v>3.386390027996185</v>
+        <v>3.356526731396617</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.11066130550631</v>
+        <v>12.53653502097187</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.63540229426292</v>
       </c>
       <c r="M22">
-        <v>15.65081299527579</v>
+        <v>8.270735486829119</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.16852107502559</v>
       </c>
       <c r="P22">
-        <v>11.45200805964615</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.58044535788476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.45569331832044</v>
+      </c>
+      <c r="S22">
+        <v>14.49562651790838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.81684369228158</v>
+        <v>16.11575923552283</v>
       </c>
       <c r="C23">
-        <v>11.55671012543247</v>
+        <v>11.73858359206322</v>
       </c>
       <c r="D23">
-        <v>5.778785548453833</v>
+        <v>6.142921699565518</v>
       </c>
       <c r="E23">
-        <v>36.90624623698041</v>
+        <v>36.88916217449193</v>
       </c>
       <c r="F23">
-        <v>21.58554852750772</v>
+        <v>19.42832645597963</v>
       </c>
       <c r="G23">
-        <v>2.074710704031983</v>
+        <v>10.98959733635669</v>
       </c>
       <c r="H23">
-        <v>3.77513236907066</v>
+        <v>3.762426018839418</v>
       </c>
       <c r="I23">
-        <v>3.325460303960041</v>
+        <v>3.314555011939038</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.106179953589</v>
+        <v>12.74931376532431</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.81111192631896</v>
       </c>
       <c r="M23">
-        <v>15.38738281958548</v>
+        <v>8.371972949962416</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.02726775977399</v>
       </c>
       <c r="P23">
-        <v>11.51535513588117</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.48956693777692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.48959644121521</v>
+      </c>
+      <c r="S23">
+        <v>14.76385975249928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.60258906810578</v>
+        <v>15.19306920140753</v>
       </c>
       <c r="C24">
-        <v>10.78542614995628</v>
+        <v>11.36577230386279</v>
       </c>
       <c r="D24">
-        <v>5.51454532484505</v>
+        <v>5.628819157768075</v>
       </c>
       <c r="E24">
-        <v>34.19736525287577</v>
+        <v>34.23320945574451</v>
       </c>
       <c r="F24">
-        <v>20.71770361184394</v>
+        <v>19.7454407045734</v>
       </c>
       <c r="G24">
-        <v>2.080594760815798</v>
+        <v>2.248346453698319</v>
       </c>
       <c r="H24">
-        <v>3.406943793795171</v>
+        <v>3.433474605737115</v>
       </c>
       <c r="I24">
-        <v>3.096344985587936</v>
+        <v>3.152844221582801</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.0681444550846</v>
+        <v>13.27721073001382</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.34038690714836</v>
       </c>
       <c r="M24">
-        <v>14.34627145759681</v>
+        <v>8.494902272862516</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.31326499932999</v>
       </c>
       <c r="P24">
-        <v>11.75663065502702</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.12588071579043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.66375515025392</v>
+      </c>
+      <c r="S24">
+        <v>15.31686384294402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.17387107491854</v>
+        <v>13.8813216314497</v>
       </c>
       <c r="C25">
-        <v>9.900145852339151</v>
+        <v>10.40327312337032</v>
       </c>
       <c r="D25">
-        <v>5.212247073625186</v>
+        <v>5.261127679119112</v>
       </c>
       <c r="E25">
-        <v>31.03506646428288</v>
+        <v>31.10516194319283</v>
       </c>
       <c r="F25">
-        <v>19.78405767479921</v>
+        <v>18.96512980394226</v>
       </c>
       <c r="G25">
-        <v>2.087172534991143</v>
+        <v>2.41423000083805</v>
       </c>
       <c r="H25">
-        <v>2.993277963160847</v>
+        <v>3.04467292826442</v>
       </c>
       <c r="I25">
-        <v>2.841902184420533</v>
+        <v>2.946126618827759</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.04777981542404</v>
+        <v>13.34245832320075</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.59726728648501</v>
       </c>
       <c r="M25">
-        <v>13.13283515196265</v>
+        <v>8.215595055418683</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.15572232672965</v>
       </c>
       <c r="P25">
-        <v>12.0213540548037</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.75485793534888</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.88357277513914</v>
+      </c>
+      <c r="S25">
+        <v>15.05116645052592</v>
       </c>
     </row>
   </sheetData>
